--- a/Documentation/FP.xlsx
+++ b/Documentation/FP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sommer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1939AA-0A41-437B-8997-9E08B9B5C10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353103A-8296-45F4-BEDE-7D0C0B1CB584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C1B5846-90E7-4F17-9D08-2F7749EED1BB}"/>
   </bookViews>
@@ -172,6 +172,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -253,13 +254,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>4.5</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,7 +291,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1576,7 @@
         <v>6.64</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>37.35</v>
       </c>
       <c r="C14" s="1">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
